--- a/WGRDBESstockCoord/format/RCEF_v14_suggestions/RCEF_tv14.9_example.xlsx
+++ b/WGRDBESstockCoord/format/RCEF_v14_suggestions/RCEF_tv14.9_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/kibi_dtu_dk/Documents/gits/RDBESstockCoord/WGRDBESstockCoord/format/RCEF_v14_suggestions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{56C5D8A0-F758-4FB3-A03B-A1E0690E235F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16404ED6-8674-4BEE-BF04-B0690E784EB3}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{56C5D8A0-F758-4FB3-A03B-A1E0690E235F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D5C2E77-50E6-4049-BF89-A7F18C34B182}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Effort" sheetId="9" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Census Catches fisheriesMan...'!$B$3:$T$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Census Catches fisheriesMan...'!$B$3:$T$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="72">
   <si>
     <t>year</t>
   </si>
@@ -213,18 +213,12 @@
     <t>With fisheriesManagementUnit</t>
   </si>
   <si>
-    <t>WithOut fisheriesManagementUnit</t>
-  </si>
-  <si>
     <t>ICESArea, ICESAreaList, StockArea, FisheriesManagementUnit</t>
   </si>
   <si>
     <t>FisheriesManagementUnit</t>
   </si>
   <si>
-    <t>q1_27.4_OTB_DEF_70-99_0_0_all</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fleet-All         </t>
   </si>
   <si>
@@ -253,6 +247,15 @@
   </si>
   <si>
     <t>A map with overlapping Mangema</t>
+  </si>
+  <si>
+    <t>https://external-content.duckduckgo.com/iu/?u=https%3A%2F%2Fwww.researchgate.net%2Fprofile%2FMatteo-Chiarini%2Fpublication%2F351904143%2Ffigure%2Ffig1%2FAS%3A1027995691147265%401622104680622%2FNephrops-UWTV-survey-coverage-in-2019-FU-Functional-Unit-GSA-Geographical-Sub-Area.png&amp;f=1&amp;nofb=1&amp;ipt=ff4f83eba89c2ae5b01a3f394b0537dc238f5e12103ceaa9538354f356601b2e</t>
+  </si>
+  <si>
+    <t>q1_FU.32_OTB_DEF_70-99_0_0_all</t>
+  </si>
+  <si>
+    <t>WithOut fisheriesManagementUnit - we think this work if fisheriesManagementUnit is present in effort</t>
   </si>
 </sst>
 </file>
@@ -420,13 +423,79 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>262890</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="1 Nephrops UWTV survey coverage in 2019 (FU: Functional Unit, GSA ...">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DCB8E7F-F1F3-5FA8-015B-C0DA738A3B59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="6400800"/>
+          <a:ext cx="8100060" cy="6865620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8ACA60FB-DD62-4D9F-A3A3-88A97CBA3CAF}" name="Table2" displayName="Table2" ref="A3:T16" totalsRowShown="0">
-  <autoFilter ref="A3:T16" xr:uid="{8ACA60FB-DD62-4D9F-A3A3-88A97CBA3CAF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8ACA60FB-DD62-4D9F-A3A3-88A97CBA3CAF}" name="Table2" displayName="Table2" ref="A3:T13" totalsRowShown="0">
+  <autoFilter ref="A3:T13" xr:uid="{8ACA60FB-DD62-4D9F-A3A3-88A97CBA3CAF}"/>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{55907A8F-14A4-4C99-91BD-6494E51357B8}" name="no"/>
     <tableColumn id="2" xr3:uid="{DB6D99AE-BC82-488E-AA0A-7FE1142851BA}" name="vesselFlagCountry"/>
@@ -454,8 +523,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{516632A0-BE79-426A-9E59-261E917A5C8A}" name="Table3" displayName="Table3" ref="A21:S30" totalsRowShown="0">
-  <autoFilter ref="A21:S30" xr:uid="{516632A0-BE79-426A-9E59-261E917A5C8A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{516632A0-BE79-426A-9E59-261E917A5C8A}" name="Table3" displayName="Table3" ref="A18:S27" totalsRowShown="0">
+  <autoFilter ref="A18:S27" xr:uid="{516632A0-BE79-426A-9E59-261E917A5C8A}"/>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{4CC8CADD-58AB-4BFF-9E99-2B293A7C135F}" name="no"/>
     <tableColumn id="2" xr3:uid="{7C073B9F-C97D-4B81-A7E7-B2DB1945B463}" name="vesselFlagCountry"/>
@@ -798,10 +867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B4E606-8859-41CD-A927-0EFFEE5FD6B1}">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1091,10 +1160,10 @@
         <v>49</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1137,10 +1206,10 @@
         <v>50</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O8" s="1"/>
       <c r="Q8" s="1"/>
@@ -1180,10 +1249,10 @@
         <v>54</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O9" s="1"/>
       <c r="Q9" s="1"/>
@@ -1231,7 +1300,9 @@
       <c r="N10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O10" s="1"/>
+      <c r="O10" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="P10" s="1"/>
       <c r="R10" t="s">
         <v>25</v>
@@ -1283,6 +1354,9 @@
       <c r="N11" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="O11" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="P11" s="1"/>
       <c r="R11" t="s">
         <v>25</v>
@@ -1331,250 +1405,249 @@
       <c r="N12" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="O12" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="N16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="N18" t="s">
+        <v>12</v>
+      </c>
+      <c r="O18" t="s">
+        <v>13</v>
+      </c>
+      <c r="P18" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="1">
-        <v>2023</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="C19">
+        <v>2023</v>
+      </c>
+      <c r="D19" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E19" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F19">
         <v>107254</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G19" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H19" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="1">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K13" s="1" t="s">
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>58</v>
+      </c>
+      <c r="K19" t="s">
+        <v>45</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="Q19" t="s">
+        <v>25</v>
+      </c>
+      <c r="R19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20">
+        <v>2023</v>
+      </c>
+      <c r="D20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20">
+        <v>107254</v>
+      </c>
+      <c r="G20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K20" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O20" s="1"/>
+      <c r="Q20" t="s">
+        <v>25</v>
+      </c>
+      <c r="R20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>6</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S13" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="B21" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="1">
-        <v>2023</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="1">
-        <v>107254</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="C21">
+        <v>2023</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21">
+        <v>126417</v>
+      </c>
+      <c r="G21" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H21" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="1">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S14" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2023</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="1">
-        <v>107254</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15" s="1">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>57</v>
-      </c>
-      <c r="N19" s="1"/>
-      <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J20" s="5" t="s">
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N21" t="s">
-        <v>12</v>
-      </c>
-      <c r="O21" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="S21" t="s">
-        <v>23</v>
-      </c>
+      <c r="K21" t="s">
+        <v>49</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N21" s="1"/>
+      <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
         <v>42</v>
@@ -1583,13 +1656,13 @@
         <v>2023</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F22">
-        <v>107254</v>
+        <v>126417</v>
       </c>
       <c r="G22" t="s">
         <v>24</v>
@@ -1601,29 +1674,23 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
+        <v>58</v>
+      </c>
+      <c r="K22" t="s">
+        <v>50</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K22" t="s">
-        <v>45</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="Q22" t="s">
-        <v>25</v>
-      </c>
-      <c r="R22">
-        <v>50</v>
-      </c>
+      <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
         <v>42</v>
@@ -1632,13 +1699,13 @@
         <v>2023</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F23">
-        <v>107254</v>
+        <v>126425</v>
       </c>
       <c r="G23" t="s">
         <v>24</v>
@@ -1650,28 +1717,23 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K23" t="s">
+        <v>54</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M23" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K23" t="s">
-        <v>45</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O23" s="1"/>
-      <c r="Q23" t="s">
-        <v>25</v>
-      </c>
-      <c r="R23">
-        <v>20</v>
-      </c>
+      <c r="N23" s="1"/>
+      <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
         <v>42</v>
@@ -1680,13 +1742,13 @@
         <v>2023</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E24" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F24">
-        <v>126417</v>
+        <v>107254</v>
       </c>
       <c r="G24" t="s">
         <v>24</v>
@@ -1698,23 +1760,31 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K24" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N24" s="1"/>
-      <c r="P24" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O24" s="1"/>
+      <c r="Q24" t="s">
+        <v>25</v>
+      </c>
+      <c r="R24">
+        <v>50</v>
+      </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
         <v>42</v>
@@ -1723,13 +1793,13 @@
         <v>2023</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E25" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F25">
-        <v>126417</v>
+        <v>107254</v>
       </c>
       <c r="G25" t="s">
         <v>24</v>
@@ -1741,23 +1811,31 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K25" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N25" s="1"/>
-      <c r="P25" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O25" s="1"/>
+      <c r="Q25" t="s">
+        <v>25</v>
+      </c>
+      <c r="R25">
+        <v>20</v>
+      </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
         <v>42</v>
@@ -1766,16 +1844,16 @@
         <v>2023</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F26">
-        <v>126425</v>
+        <v>107254</v>
       </c>
       <c r="G26" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H26" t="s">
         <v>35</v>
@@ -1784,170 +1862,31 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="K26" t="s">
-        <v>54</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N26" s="1"/>
-      <c r="P26" s="1"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>7</v>
-      </c>
-      <c r="B27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27">
-        <v>2023</v>
-      </c>
-      <c r="D27" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27">
-        <v>107254</v>
-      </c>
-      <c r="G27" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" t="s">
-        <v>35</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27" t="s">
-        <v>59</v>
-      </c>
-      <c r="K27" t="s">
-        <v>45</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="N26" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O27" s="1"/>
-      <c r="Q27" t="s">
-        <v>25</v>
-      </c>
-      <c r="R27">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>7</v>
-      </c>
-      <c r="B28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28">
-        <v>2023</v>
-      </c>
-      <c r="D28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28">
-        <v>107254</v>
-      </c>
-      <c r="G28" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" t="s">
-        <v>35</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28" t="s">
-        <v>59</v>
-      </c>
-      <c r="K28" t="s">
-        <v>45</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O28" s="1"/>
-      <c r="Q28" t="s">
-        <v>25</v>
-      </c>
-      <c r="R28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>7</v>
-      </c>
-      <c r="B29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29">
-        <v>2023</v>
-      </c>
-      <c r="D29" t="s">
-        <v>48</v>
-      </c>
-      <c r="E29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F29">
-        <v>107254</v>
-      </c>
-      <c r="G29" t="s">
-        <v>27</v>
-      </c>
-      <c r="H29" t="s">
-        <v>35</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29" t="s">
-        <v>59</v>
-      </c>
-      <c r="K29" t="s">
-        <v>45</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O29" s="1"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="34" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K34" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2347,13 +2286,13 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -2361,18 +2300,18 @@
         <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G16" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2393,6 +2332,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C227E214A244A84FBAA5152CDD6EAC80" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9202a1ecfe0ad2ec696e0f91981ba8e0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d5313c0-c1e6-4122-afa9-da1ccdba405d" xmlns:ns3="362c980f-4e38-4cca-bd06-5104ee5993c5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a46f65cc92525120babafc4c69c5d04c" ns2:_="" ns3:_="">
     <xsd:import namespace="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
@@ -2569,15 +2517,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60664607-CBCD-4AFC-843C-4CFA04400440}">
   <ds:schemaRefs>
@@ -2596,6 +2535,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{718E005C-88DE-4F66-B59B-F1C1FF5E3D2A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD780A6C-FDDC-4177-9817-26C904DC3A4B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2612,12 +2559,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{718E005C-88DE-4F66-B59B-F1C1FF5E3D2A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/WGRDBESstockCoord/format/RCEF_v14_suggestions/RCEF_tv14.9_example.xlsx
+++ b/WGRDBESstockCoord/format/RCEF_v14_suggestions/RCEF_tv14.9_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/kibi_dtu_dk/Documents/gits/RDBESstockCoord/WGRDBESstockCoord/format/RCEF_v14_suggestions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{56C5D8A0-F758-4FB3-A03B-A1E0690E235F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D5C2E77-50E6-4049-BF89-A7F18C34B182}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="8_{56C5D8A0-F758-4FB3-A03B-A1E0690E235F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F800B16-5468-409A-A1D2-C5A2F7E588D1}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Census Catches fisheriesMan..." sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="71">
   <si>
     <t>year</t>
   </si>
@@ -243,12 +243,6 @@
     <t>SAN.2</t>
   </si>
   <si>
-    <t>HAWG_SAN</t>
-  </si>
-  <si>
-    <t>A map with overlapping Mangema</t>
-  </si>
-  <si>
     <t>https://external-content.duckduckgo.com/iu/?u=https%3A%2F%2Fwww.researchgate.net%2Fprofile%2FMatteo-Chiarini%2Fpublication%2F351904143%2Ffigure%2Ffig1%2FAS%3A1027995691147265%401622104680622%2FNephrops-UWTV-survey-coverage-in-2019-FU-Functional-Unit-GSA-Geographical-Sub-Area.png&amp;f=1&amp;nofb=1&amp;ipt=ff4f83eba89c2ae5b01a3f394b0537dc238f5e12103ceaa9538354f356601b2e</t>
   </si>
   <si>
@@ -256,6 +250,9 @@
   </si>
   <si>
     <t>WithOut fisheriesManagementUnit - we think this work if fisheriesManagementUnit is present in effort</t>
+  </si>
+  <si>
+    <t>A map with overlapping Managementunits</t>
   </si>
 </sst>
 </file>
@@ -869,7 +866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B4E606-8859-41CD-A927-0EFFEE5FD6B1}">
   <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -1301,7 +1298,7 @@
         <v>47</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P10" s="1"/>
       <c r="R10" t="s">
@@ -1355,7 +1352,7 @@
         <v>47</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P11" s="1"/>
       <c r="R11" t="s">
@@ -1406,7 +1403,7 @@
         <v>47</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P12" s="1"/>
     </row>
@@ -1430,7 +1427,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N16" s="1"/>
       <c r="P16" s="1"/>
@@ -1877,7 +1874,7 @@
     </row>
     <row r="34" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1895,8 +1892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2286,7 +2283,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E14" t="s">
         <v>64</v>
@@ -2306,10 +2303,16 @@
         <v>63</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" t="s">
+        <v>64</v>
+      </c>
       <c r="G16" s="2" t="s">
         <v>66</v>
       </c>
@@ -2320,27 +2323,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C227E214A244A84FBAA5152CDD6EAC80" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9202a1ecfe0ad2ec696e0f91981ba8e0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d5313c0-c1e6-4122-afa9-da1ccdba405d" xmlns:ns3="362c980f-4e38-4cca-bd06-5104ee5993c5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a46f65cc92525120babafc4c69c5d04c" ns2:_="" ns3:_="">
     <xsd:import namespace="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
@@ -2517,32 +2499,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60664607-CBCD-4AFC-843C-4CFA04400440}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="362c980f-4e38-4cca-bd06-5104ee5993c5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{718E005C-88DE-4F66-B59B-F1C1FF5E3D2A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD780A6C-FDDC-4177-9817-26C904DC3A4B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2559,4 +2537,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{718E005C-88DE-4F66-B59B-F1C1FF5E3D2A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60664607-CBCD-4AFC-843C-4CFA04400440}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="362c980f-4e38-4cca-bd06-5104ee5993c5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>